--- a/macchine .xlsx
+++ b/macchine .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorenzo\Documents\GitHub\Mes-opt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FA23F7F-B034-4A61-AC82-4691524CE4FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E807FCE7-590D-4534-B1BD-9FED913BEE4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{24FE46F8-AD85-9943-9696-C485A3BBD698}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="77">
   <si>
     <t>k3Q</t>
   </si>
@@ -258,15 +258,28 @@
   </si>
   <si>
     <t>Internal combustion Engine</t>
+  </si>
+  <si>
+    <t>Capital cost</t>
+  </si>
+  <si>
+    <t>Maintenance cost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -320,34 +333,35 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{07849CEC-A397-2547-AE02-79DCD68D1B20}"/>
@@ -665,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B938D50-7F27-E543-9F68-00B9E246C11B}">
   <dimension ref="A2:V138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="G46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q57" sqref="Q57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,18 +698,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
       <c r="M2" s="8" t="s">
         <v>23</v>
       </c>
@@ -709,26 +723,26 @@
         <v>39</v>
       </c>
       <c r="C3" s="1">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="5">
         <f>(C3*D9+H11)/7500</f>
-        <v>0.35155733333333333</v>
+        <v>0.14409066666666667</v>
       </c>
       <c r="F3" s="1">
         <f>(C3*D5+H9)/2478</f>
-        <v>1.1887288135593221</v>
+        <v>0.42520984665052464</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="10"/>
+      <c r="Q3" s="12"/>
       <c r="V3" s="1">
         <f>J18+J42+J95</f>
         <v>4984.1714999999995</v>
@@ -770,50 +784,50 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="2">
         <v>0.49</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="1">
         <f>C3*C4</f>
-        <v>3250</v>
+        <v>1250</v>
       </c>
       <c r="I5" s="1">
         <f>D5*H5+D6*C3+D7</f>
-        <v>1353.17</v>
+        <v>441.16999999999996</v>
       </c>
       <c r="J5" s="1">
         <f>D9*H5+D10*C3+D11</f>
-        <v>1209.93</v>
+        <v>531.93000000000006</v>
       </c>
       <c r="K5" s="1">
         <f>I5/H5</f>
-        <v>0.41636000000000001</v>
+        <v>0.35293599999999997</v>
       </c>
       <c r="L5" s="1">
         <f>J5/H5</f>
-        <v>0.37228615384615388</v>
+        <v>0.42554400000000003</v>
       </c>
       <c r="M5" s="1">
         <f>K5+L5</f>
-        <v>0.78864615384615389</v>
+        <v>0.77848000000000006</v>
       </c>
       <c r="N5" s="1">
         <f>((I5/0.5+J5/0.9)-H5)/(I5/0.5+J5/0.9)</f>
-        <v>0.19767085907644102</v>
+        <v>0.15160674370831567</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>10</v>
@@ -823,46 +837,46 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="1">
         <f>C3</f>
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="I6" s="1">
         <f>D5*H6+D6*C3+D7</f>
-        <v>2945.67</v>
+        <v>1053.67</v>
       </c>
       <c r="J6" s="1">
         <f>D9*H6+D10*C3+D11</f>
-        <v>2636.68</v>
+        <v>1080.68</v>
       </c>
       <c r="K6" s="1">
         <f>I6/H6</f>
-        <v>0.45318000000000003</v>
+        <v>0.42146800000000001</v>
       </c>
       <c r="L6" s="1">
         <f>J6/H6</f>
-        <v>0.40564307692307688</v>
+        <v>0.43227200000000005</v>
       </c>
       <c r="M6" s="1">
         <f>K6+L6</f>
-        <v>0.85882307692307691</v>
+        <v>0.85374000000000005</v>
       </c>
       <c r="N6" s="1">
         <f>((I6/0.5+J6/0.9)-H6)/(I6/0.5+J6/0.9)</f>
-        <v>0.26312079553730838</v>
+        <v>0.24427817817972478</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>7</v>
@@ -876,20 +890,20 @@
       </c>
       <c r="U6" s="1">
         <f>C3</f>
-        <v>6500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="2">
         <v>-128.83000000000001</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
       <c r="P7" s="3" t="s">
         <v>4</v>
       </c>
@@ -898,8 +912,8 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
       <c r="G8" s="1" t="s">
         <v>70</v>
       </c>
@@ -907,12 +921,19 @@
         <f>D5</f>
         <v>0.49</v>
       </c>
+      <c r="P8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="1">
+        <f>I6*1000</f>
+        <v>1053670</v>
+      </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
@@ -924,13 +945,16 @@
       </c>
       <c r="H9" s="1">
         <f>D6*C3+D7</f>
-        <v>-239.33000000000004</v>
+        <v>-171.33</v>
       </c>
       <c r="K9" s="7"/>
+      <c r="P9" s="13" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
@@ -946,8 +970,8 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="1" t="s">
         <v>0</v>
       </c>
@@ -959,26 +983,26 @@
       </c>
       <c r="H11" s="1">
         <f>D10*$C$3+D11</f>
-        <v>-216.82</v>
+        <v>-16.819999999999993</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
       <c r="M14" s="3" t="s">
         <v>23</v>
       </c>
@@ -1005,10 +1029,10 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="P15" s="10" t="s">
+      <c r="P15" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="Q15" s="10"/>
+      <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
@@ -1040,20 +1064,20 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="11"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="11"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1085,16 +1109,16 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="1" t="s">
         <v>8</v>
       </c>
@@ -1130,16 +1154,16 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
       <c r="P19" s="3" t="s">
         <v>4</v>
       </c>
@@ -1148,24 +1172,38 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="P20" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q20" s="1">
+        <f>C15*65.2+10400</f>
+        <v>173400</v>
+      </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="11"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="2">
         <v>0.97599999999999998</v>
       </c>
+      <c r="P21" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q21" s="1">
+        <f>0.02*Q20</f>
+        <v>3468</v>
+      </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1181,8 +1219,8 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="1" t="s">
         <v>0</v>
       </c>
@@ -1198,22 +1236,22 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
       <c r="M26" s="3" t="s">
         <v>23</v>
       </c>
@@ -1246,10 +1284,10 @@
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="P27" s="10" t="s">
+      <c r="P27" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="Q27" s="10"/>
+      <c r="Q27" s="12"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
@@ -1281,20 +1319,20 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="11"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="2">
         <v>0.13300000000000001</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="11"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="1" t="s">
         <v>11</v>
       </c>
@@ -1326,16 +1364,16 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2">
         <v>-1.0489999999999999E-2</v>
       </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="1" t="s">
         <v>8</v>
       </c>
@@ -1370,16 +1408,16 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="2">
         <v>-5.125</v>
       </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
       <c r="P31" s="3" t="s">
         <v>4</v>
       </c>
@@ -1388,14 +1426,14 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="11"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="1" t="s">
         <v>2</v>
       </c>
@@ -1404,8 +1442,8 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="1" t="s">
         <v>1</v>
       </c>
@@ -1414,8 +1452,8 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="1" t="s">
         <v>0</v>
       </c>
@@ -1424,22 +1462,22 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
       <c r="M38" s="3" t="s">
         <v>23</v>
       </c>
@@ -1470,10 +1508,10 @@
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
-      <c r="P39" s="10" t="s">
+      <c r="P39" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="Q39" s="10"/>
+      <c r="Q39" s="12"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
@@ -1505,20 +1543,20 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="11"/>
+      <c r="B41" s="9"/>
       <c r="C41" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="2">
         <v>0.15359999999999999</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F41" s="11"/>
+      <c r="F41" s="9"/>
       <c r="G41" s="1" t="s">
         <v>11</v>
       </c>
@@ -1550,16 +1588,16 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
       <c r="C42" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2">
         <v>-1.11E-2</v>
       </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
       <c r="G42" s="1" t="s">
         <v>8</v>
       </c>
@@ -1594,16 +1632,16 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
       <c r="C43" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="2">
         <v>-28.98</v>
       </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
@@ -1612,14 +1650,14 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="11"/>
+      <c r="B45" s="9"/>
       <c r="C45" s="1" t="s">
         <v>2</v>
       </c>
@@ -1628,8 +1666,8 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="1" t="s">
         <v>1</v>
       </c>
@@ -1638,8 +1676,8 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
       <c r="C47" s="1" t="s">
         <v>0</v>
       </c>
@@ -1648,22 +1686,22 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
       <c r="M50" s="3" t="s">
         <v>23</v>
       </c>
@@ -1692,10 +1730,10 @@
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
-      <c r="P51" s="10" t="s">
+      <c r="P51" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="Q51" s="10"/>
+      <c r="Q51" s="12"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
@@ -1724,20 +1762,20 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B53" s="11"/>
+      <c r="B53" s="9"/>
       <c r="C53" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="2">
         <v>0</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F53" s="11"/>
+      <c r="F53" s="9"/>
       <c r="G53" s="1" t="s">
         <v>11</v>
       </c>
@@ -1769,16 +1807,16 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
       <c r="C54" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2">
         <v>0</v>
       </c>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
       <c r="G54" s="1" t="s">
         <v>8</v>
       </c>
@@ -1814,16 +1852,16 @@
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
       <c r="C55" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D55" s="2">
         <v>0</v>
       </c>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
       <c r="P55" s="3" t="s">
         <v>4</v>
       </c>
@@ -1832,24 +1870,38 @@
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="P56" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q56" s="1">
+        <f>130000+C51*930.9</f>
+        <v>595450</v>
+      </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B57" s="11"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D57" s="2">
         <v>3.59</v>
       </c>
+      <c r="P57" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q57" s="1">
+        <f>0.015*Q56</f>
+        <v>8931.75</v>
+      </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
       <c r="C58" s="1" t="s">
         <v>1</v>
       </c>
@@ -1865,8 +1917,8 @@
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
       <c r="C59" s="1" t="s">
         <v>0</v>
       </c>
@@ -1882,22 +1934,22 @@
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
       <c r="M63" s="3" t="s">
         <v>23</v>
       </c>
@@ -1930,18 +1982,18 @@
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
       <c r="M66" s="3" t="s">
         <v>23</v>
       </c>
@@ -1976,18 +2028,18 @@
       </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
       <c r="M71" s="3" t="s">
         <v>23</v>
       </c>
@@ -2020,18 +2072,18 @@
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="9"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
       <c r="M75" s="3" t="s">
         <v>23</v>
       </c>
@@ -2064,18 +2116,18 @@
       </c>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="9"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
       <c r="M79" s="3" t="s">
         <v>23</v>
       </c>
@@ -2130,20 +2182,20 @@
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B82" s="11"/>
+      <c r="B82" s="9"/>
       <c r="C82" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="2">
         <v>0</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="E82" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F82" s="11"/>
+      <c r="F82" s="9"/>
       <c r="G82" s="1" t="s">
         <v>11</v>
       </c>
@@ -2175,16 +2227,16 @@
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2">
         <v>0</v>
       </c>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
       <c r="G83" s="1" t="s">
         <v>8</v>
       </c>
@@ -2219,16 +2271,16 @@
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
       <c r="C84" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D84" s="2">
         <v>0</v>
       </c>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
       <c r="P84" s="3" t="s">
         <v>4</v>
       </c>
@@ -2237,14 +2289,14 @@
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
+      <c r="A85" s="9"/>
+      <c r="B85" s="9"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B86" s="11"/>
+      <c r="B86" s="9"/>
       <c r="C86" s="1" t="s">
         <v>2</v>
       </c>
@@ -2253,8 +2305,8 @@
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="11"/>
-      <c r="B87" s="11"/>
+      <c r="A87" s="9"/>
+      <c r="B87" s="9"/>
       <c r="C87" s="1" t="s">
         <v>1</v>
       </c>
@@ -2263,8 +2315,8 @@
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A88" s="11"/>
-      <c r="B88" s="11"/>
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
       <c r="C88" s="1" t="s">
         <v>0</v>
       </c>
@@ -2273,22 +2325,22 @@
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="11"/>
-      <c r="B89" s="11"/>
+      <c r="A89" s="9"/>
+      <c r="B89" s="9"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C91" s="9" t="s">
+      <c r="C91" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="9"/>
-      <c r="J91" s="9"/>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="10"/>
       <c r="M91" s="3" t="s">
         <v>23</v>
       </c>
@@ -2343,20 +2395,20 @@
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="11" t="s">
+      <c r="A94" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B94" s="11"/>
+      <c r="B94" s="9"/>
       <c r="C94" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D94" s="2">
         <v>0</v>
       </c>
-      <c r="E94" s="11" t="s">
+      <c r="E94" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F94" s="11"/>
+      <c r="F94" s="9"/>
       <c r="G94" s="1" t="s">
         <v>11</v>
       </c>
@@ -2388,16 +2440,16 @@
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="11"/>
-      <c r="B95" s="11"/>
+      <c r="A95" s="9"/>
+      <c r="B95" s="9"/>
       <c r="C95" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2">
         <v>0</v>
       </c>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
       <c r="G95" s="1" t="s">
         <v>8</v>
       </c>
@@ -2433,16 +2485,16 @@
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A96" s="11"/>
-      <c r="B96" s="11"/>
+      <c r="A96" s="9"/>
+      <c r="B96" s="9"/>
       <c r="C96" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D96" s="2">
         <v>0</v>
       </c>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
       <c r="P96" s="3" t="s">
         <v>4</v>
       </c>
@@ -2451,14 +2503,14 @@
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A97" s="11"/>
-      <c r="B97" s="11"/>
+      <c r="A97" s="9"/>
+      <c r="B97" s="9"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
+      <c r="A98" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B98" s="11"/>
+      <c r="B98" s="9"/>
       <c r="C98" s="1" t="s">
         <v>2</v>
       </c>
@@ -2467,8 +2519,8 @@
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A99" s="11"/>
-      <c r="B99" s="11"/>
+      <c r="A99" s="9"/>
+      <c r="B99" s="9"/>
       <c r="C99" s="1" t="s">
         <v>1</v>
       </c>
@@ -2477,8 +2529,8 @@
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A100" s="11"/>
-      <c r="B100" s="11"/>
+      <c r="A100" s="9"/>
+      <c r="B100" s="9"/>
       <c r="C100" s="1" t="s">
         <v>0</v>
       </c>
@@ -2487,22 +2539,22 @@
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A101" s="11"/>
-      <c r="B101" s="11"/>
+      <c r="A101" s="9"/>
+      <c r="B101" s="9"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C104" s="9" t="s">
+      <c r="C104" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="9"/>
-      <c r="I104" s="9"/>
-      <c r="J104" s="9"/>
-      <c r="K104" s="9"/>
-      <c r="L104" s="9"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="10"/>
+      <c r="J104" s="10"/>
+      <c r="K104" s="10"/>
+      <c r="L104" s="10"/>
       <c r="M104" s="3" t="s">
         <v>23</v>
       </c>
@@ -2556,20 +2608,20 @@
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A107" s="12" t="s">
+      <c r="A107" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B107" s="12"/>
+      <c r="B107" s="11"/>
       <c r="C107" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D107" s="2">
         <v>11.1027</v>
       </c>
-      <c r="E107" s="11" t="s">
+      <c r="E107" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F107" s="11"/>
+      <c r="F107" s="9"/>
       <c r="G107" s="1" t="s">
         <v>11</v>
       </c>
@@ -2593,16 +2645,16 @@
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A108" s="12"/>
-      <c r="B108" s="12"/>
+      <c r="A108" s="11"/>
+      <c r="B108" s="11"/>
       <c r="C108" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2">
         <v>-0.32390000000000002</v>
       </c>
-      <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
       <c r="G108" s="1" t="s">
         <v>26</v>
       </c>
@@ -2629,16 +2681,16 @@
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A109" s="12"/>
-      <c r="B109" s="12"/>
+      <c r="A109" s="11"/>
+      <c r="B109" s="11"/>
       <c r="C109" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D109" s="2">
         <v>0</v>
       </c>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
       <c r="G109" s="1" t="s">
         <v>8</v>
       </c>
@@ -2662,14 +2714,14 @@
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A110" s="12"/>
-      <c r="B110" s="12"/>
+      <c r="A110" s="11"/>
+      <c r="B110" s="11"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A111" s="12" t="s">
+      <c r="A111" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B111" s="12"/>
+      <c r="B111" s="11"/>
       <c r="C111" s="1" t="s">
         <v>2</v>
       </c>
@@ -2678,8 +2730,8 @@
       </c>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A112" s="12"/>
-      <c r="B112" s="12"/>
+      <c r="A112" s="11"/>
+      <c r="B112" s="11"/>
       <c r="C112" s="1" t="s">
         <v>1</v>
       </c>
@@ -2688,8 +2740,8 @@
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A113" s="12"/>
-      <c r="B113" s="12"/>
+      <c r="A113" s="11"/>
+      <c r="B113" s="11"/>
       <c r="C113" s="1" t="s">
         <v>0</v>
       </c>
@@ -2698,22 +2750,22 @@
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A114" s="12"/>
-      <c r="B114" s="12"/>
+      <c r="A114" s="11"/>
+      <c r="B114" s="11"/>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C116" s="9" t="s">
+      <c r="C116" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="9"/>
-      <c r="I116" s="9"/>
-      <c r="J116" s="9"/>
-      <c r="K116" s="9"/>
-      <c r="L116" s="9"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="10"/>
+      <c r="K116" s="10"/>
+      <c r="L116" s="10"/>
       <c r="M116" s="3" t="s">
         <v>23</v>
       </c>
@@ -2762,20 +2814,20 @@
       </c>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A119" s="11" t="s">
+      <c r="A119" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B119" s="11"/>
+      <c r="B119" s="9"/>
       <c r="C119" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D119" s="2">
         <v>0.78</v>
       </c>
-      <c r="E119" s="11" t="s">
+      <c r="E119" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F119" s="11"/>
+      <c r="F119" s="9"/>
       <c r="G119" s="1" t="s">
         <v>11</v>
       </c>
@@ -2799,16 +2851,16 @@
       </c>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A120" s="11"/>
-      <c r="B120" s="11"/>
+      <c r="A120" s="9"/>
+      <c r="B120" s="9"/>
       <c r="C120" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2">
         <v>0</v>
       </c>
-      <c r="E120" s="11"/>
-      <c r="F120" s="11"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
       <c r="G120" s="1" t="s">
         <v>8</v>
       </c>
@@ -2835,16 +2887,16 @@
       </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A121" s="11"/>
-      <c r="B121" s="11"/>
+      <c r="A121" s="9"/>
+      <c r="B121" s="9"/>
       <c r="C121" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D121" s="2">
         <v>0</v>
       </c>
-      <c r="E121" s="11"/>
-      <c r="F121" s="11"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
       <c r="P121" s="3" t="s">
         <v>4</v>
       </c>
@@ -2853,52 +2905,52 @@
       </c>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A122" s="11"/>
-      <c r="B122" s="11"/>
+      <c r="A122" s="9"/>
+      <c r="B122" s="9"/>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A123" s="11" t="s">
+      <c r="A123" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B123" s="11"/>
+      <c r="B123" s="9"/>
       <c r="C123" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D123" s="2"/>
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A124" s="11"/>
-      <c r="B124" s="11"/>
+      <c r="A124" s="9"/>
+      <c r="B124" s="9"/>
       <c r="C124" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D124" s="2"/>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A125" s="11"/>
-      <c r="B125" s="11"/>
+      <c r="A125" s="9"/>
+      <c r="B125" s="9"/>
       <c r="C125" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D125" s="2"/>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A126" s="11"/>
-      <c r="B126" s="11"/>
+      <c r="A126" s="9"/>
+      <c r="B126" s="9"/>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C128" s="9" t="s">
+      <c r="C128" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="9"/>
-      <c r="I128" s="9"/>
-      <c r="J128" s="9"/>
-      <c r="K128" s="9"/>
-      <c r="L128" s="9"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="10"/>
+      <c r="I128" s="10"/>
+      <c r="J128" s="10"/>
+      <c r="K128" s="10"/>
+      <c r="L128" s="10"/>
       <c r="M128" s="3" t="s">
         <v>23</v>
       </c>
@@ -2947,20 +2999,20 @@
       </c>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A131" s="11" t="s">
+      <c r="A131" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B131" s="11"/>
+      <c r="B131" s="9"/>
       <c r="C131" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D131" s="2">
         <v>0.78</v>
       </c>
-      <c r="E131" s="11" t="s">
+      <c r="E131" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F131" s="11"/>
+      <c r="F131" s="9"/>
       <c r="G131" s="1" t="s">
         <v>11</v>
       </c>
@@ -2984,16 +3036,16 @@
       </c>
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A132" s="11"/>
-      <c r="B132" s="11"/>
+      <c r="A132" s="9"/>
+      <c r="B132" s="9"/>
       <c r="C132" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2">
         <v>0</v>
       </c>
-      <c r="E132" s="11"/>
-      <c r="F132" s="11"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
       <c r="G132" s="1" t="s">
         <v>8</v>
       </c>
@@ -3020,16 +3072,16 @@
       </c>
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A133" s="11"/>
-      <c r="B133" s="11"/>
+      <c r="A133" s="9"/>
+      <c r="B133" s="9"/>
       <c r="C133" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D133" s="2">
         <v>0</v>
       </c>
-      <c r="E133" s="11"/>
-      <c r="F133" s="11"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
       <c r="P133" s="3" t="s">
         <v>4</v>
       </c>
@@ -3038,46 +3090,71 @@
       </c>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A134" s="11"/>
-      <c r="B134" s="11"/>
+      <c r="A134" s="9"/>
+      <c r="B134" s="9"/>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A135" s="11" t="s">
+      <c r="A135" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B135" s="11"/>
+      <c r="B135" s="9"/>
       <c r="C135" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D135" s="2"/>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A136" s="11"/>
-      <c r="B136" s="11"/>
+      <c r="A136" s="9"/>
+      <c r="B136" s="9"/>
       <c r="C136" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D136" s="2"/>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A137" s="11"/>
-      <c r="B137" s="11"/>
+      <c r="A137" s="9"/>
+      <c r="B137" s="9"/>
       <c r="C137" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D137" s="2"/>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A138" s="11"/>
-      <c r="B138" s="11"/>
+      <c r="A138" s="9"/>
+      <c r="B138" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A123:B126"/>
-    <mergeCell ref="C128:L128"/>
-    <mergeCell ref="A131:B134"/>
-    <mergeCell ref="E131:F133"/>
-    <mergeCell ref="A135:B138"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A5:B8"/>
+    <mergeCell ref="E5:F7"/>
+    <mergeCell ref="A9:B12"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A17:B20"/>
+    <mergeCell ref="E17:F19"/>
+    <mergeCell ref="A21:B24"/>
+    <mergeCell ref="C26:L26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A29:B32"/>
+    <mergeCell ref="E29:F31"/>
+    <mergeCell ref="A33:B36"/>
+    <mergeCell ref="C38:L38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A41:B44"/>
+    <mergeCell ref="E41:F43"/>
+    <mergeCell ref="A45:B48"/>
+    <mergeCell ref="C50:L50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A53:B56"/>
+    <mergeCell ref="E53:F55"/>
+    <mergeCell ref="A57:B60"/>
+    <mergeCell ref="C63:L63"/>
+    <mergeCell ref="C66:L66"/>
+    <mergeCell ref="C71:L71"/>
+    <mergeCell ref="C75:L75"/>
+    <mergeCell ref="C79:L79"/>
     <mergeCell ref="A82:B85"/>
     <mergeCell ref="E82:F84"/>
     <mergeCell ref="E119:F121"/>
@@ -3092,36 +3169,11 @@
     <mergeCell ref="A111:B114"/>
     <mergeCell ref="C116:L116"/>
     <mergeCell ref="A119:B122"/>
-    <mergeCell ref="C63:L63"/>
-    <mergeCell ref="C66:L66"/>
-    <mergeCell ref="C71:L71"/>
-    <mergeCell ref="C75:L75"/>
-    <mergeCell ref="C79:L79"/>
-    <mergeCell ref="C50:L50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A53:B56"/>
-    <mergeCell ref="E53:F55"/>
-    <mergeCell ref="A57:B60"/>
-    <mergeCell ref="C38:L38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A41:B44"/>
-    <mergeCell ref="E41:F43"/>
-    <mergeCell ref="A45:B48"/>
-    <mergeCell ref="C26:L26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A29:B32"/>
-    <mergeCell ref="E29:F31"/>
-    <mergeCell ref="A33:B36"/>
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A17:B20"/>
-    <mergeCell ref="E17:F19"/>
-    <mergeCell ref="A21:B24"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A5:B8"/>
-    <mergeCell ref="E5:F7"/>
-    <mergeCell ref="A9:B12"/>
+    <mergeCell ref="A123:B126"/>
+    <mergeCell ref="C128:L128"/>
+    <mergeCell ref="A131:B134"/>
+    <mergeCell ref="E131:F133"/>
+    <mergeCell ref="A135:B138"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
